--- a/线代/考题知识点.xlsx
+++ b/线代/考题知识点.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>知识点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,90 @@
   </si>
   <si>
     <t>向量组的秩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量的运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量的内积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非齐次线性方程有唯一解的条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增广矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵的秩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非齐次线性方程有无穷多解的条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵的行列式与矩阵的秩的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由未知量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征多项式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征方程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征方程与特征值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次型的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次型的矩阵表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行列式的性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行列式的计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵的乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵的性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵的n次方求法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,23 +592,23 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="56.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -538,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -550,7 +634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -565,7 +649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -577,7 +661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -592,7 +676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -607,7 +691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -622,7 +706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -634,7 +718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -652,7 +736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -664,7 +748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -679,58 +763,128 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="10">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="10">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
